--- a/IT_testing/testing/Lab_4/Сценарии тестирования.xlsx
+++ b/IT_testing/testing/Lab_4/Сценарии тестирования.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masha\Лабы\Епам\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masha\Лабы\Епам\testing\IT_testing\testing\Lab_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -150,21 +150,9 @@
     <t>Открывается форма добавления/редактирования записей о сотрудниках</t>
   </si>
   <si>
-    <t>1. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 2. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 3. Заполнить поле "Должность" допустимым значением. Например: PM. 4. Нажать кнопку "Сохранить"</t>
-  </si>
-  <si>
-    <t>1. Заполнить поле "Имя" допустимым значением. Например: "Мария". 2. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 3. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 4. Заполнить поле "Должность" допустимым значением. Например: PM. 5. Нажать кнопку "Сохранить". Все данные поля являются обязательными для заполнения.</t>
-  </si>
-  <si>
-    <t>1. Заполнить поле "Имя" допустимым значением. Например: "Мария". 2. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 3. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 4. Заполнить поле "Должность" допустимым значением. Например: PM. 5. Нажать кнопку "Сохранить"</t>
-  </si>
-  <si>
     <t>1. Нажать кнопку "Отмена"</t>
   </si>
   <si>
-    <t>1. Заполнить все (или какое-либо из полей). 2. Нажать кнопку "Отмена"</t>
-  </si>
-  <si>
     <t>Отредактировать запись о сотруднике с заполнением всех полей</t>
   </si>
   <si>
@@ -180,18 +168,6 @@
     <t>Отмена редактирования записи с изменениями</t>
   </si>
   <si>
-    <t>1. Отредактировать поле "Имя" допустимым значением. Например: "Маша". 2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 5. Нажать кнопку "Сохранить"</t>
-  </si>
-  <si>
-    <t>1. Отредактировать поле "Имя" допустимым значением. Например: "Маша". 2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 5. Нажать кнопку "Сохранить". Все поля являются обязательными для заполнения</t>
-  </si>
-  <si>
-    <t>1. Поле "Имя" оставить пустым. 2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 5. Нажать кнопку "Сохранить". Достаточно выполнить пункт 1, а 2-4 не выполнять.</t>
-  </si>
-  <si>
-    <t>1. Изменить какое-либо из полей. 2 Нажать кнопку "Отмена"</t>
-  </si>
-  <si>
     <t>Сотрудник сохранен. Переход к списку персон</t>
   </si>
   <si>
@@ -205,6 +181,56 @@
   </si>
   <si>
     <t>Сотрудники</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Имя" допустимым значением. Например: "Мария". 
+2. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 
+3. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 
+4. Заполнить поле "Должность" допустимым значением. Например: PM. 
+5. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Имя" допустимым значением. Например: "Мария". 
+2. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 
+3. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 
+4. Заполнить поле "Должность" допустимым значением. Например: PM. 
+5. Нажать кнопку "Сохранить". 
+Все данные поля являются обязательными для заполнения.</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 
+2. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 
+3. Заполнить поле "Должность" допустимым значением. Например: PM. 
+4. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>1. Заполнить все (или какое-либо из полей). 
+2. Нажать кнопку "Отмена"</t>
+  </si>
+  <si>
+    <t>1. Отредактировать поле "Имя" допустимым значением. Например: "Маша". 
+2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 
+3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 
+4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 
+5. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>1. Отредактировать поле "Имя" допустимым значением. Например: "Маша". 
+2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 
+3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 
+4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 
+5. Нажать кнопку "Сохранить". Все поля являются обязательными для заполнения</t>
+  </si>
+  <si>
+    <t>1. Поле "Имя" оставить пустым. 
+2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 
+3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 
+4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 
+5. Нажать кнопку "Сохранить". Достаточно выполнить пункт 1, а 2-4 не выполнять.</t>
+  </si>
+  <si>
+    <t>1. Изменить какое-либо из полей. 
+2 Нажать кнопку "Отмена"</t>
   </si>
 </sst>
 </file>
@@ -463,12 +489,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -497,26 +517,32 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,7 +886,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -875,48 +901,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="17"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="12" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -978,348 +1004,348 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-    </row>
-    <row r="6" spans="1:17" ht="114.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" ht="140.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" ht="165.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" ht="114.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+    </row>
+    <row r="12" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-    </row>
-    <row r="7" spans="1:17" ht="140.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-    </row>
-    <row r="8" spans="1:17" ht="102" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="19" t="s">
+      <c r="E14" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-    </row>
-    <row r="12" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="14" t="s">
+      <c r="E15" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="27"/>
-    </row>
-    <row r="13" spans="1:17" ht="153" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="27"/>
-    </row>
-    <row r="14" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="27"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="14" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="27"/>
-    </row>
-    <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="14" t="s">
+      <c r="F16" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/IT_testing/testing/Lab_4/Сценарии тестирования.xlsx
+++ b/IT_testing/testing/Lab_4/Сценарии тестирования.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Сценарии тестирования" sheetId="1" r:id="rId1"/>
+    <sheet name="Легенда" sheetId="2" r:id="rId1"/>
+    <sheet name="Сценарии тестирования" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Status" localSheetId="0">'[1]Тестовые данные'!#REF!</definedName>
     <definedName name="Status">'[1]Тестовые данные'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="114">
   <si>
     <t>V1.0</t>
   </si>
@@ -111,9 +113,6 @@
     <t>Добавление персоны</t>
   </si>
   <si>
-    <t>Создание новой записи о сотруднике с заполнением всех полей</t>
-  </si>
-  <si>
     <t>Создание новой записи о сотруднике с заполнением обязательных полей</t>
   </si>
   <si>
@@ -157,9 +156,6 @@
   </si>
   <si>
     <t>Попытка редактирования записи без поля "Имя"</t>
-  </si>
-  <si>
-    <t>Отредактировать запись о сотруднике с заполнением обязательных полей</t>
   </si>
   <si>
     <t>Отмена редактирования записи без изменений</t>
@@ -232,12 +228,208 @@
     <t>1. Изменить какое-либо из полей. 
 2 Нажать кнопку "Отмена"</t>
   </si>
+  <si>
+    <t>1.1.2.6.</t>
+  </si>
+  <si>
+    <t>Попытка создания новой записи без поля "Фамилия"</t>
+  </si>
+  <si>
+    <t>Попытка создания записи без поля "Отчество"</t>
+  </si>
+  <si>
+    <t>Попытка создания записи без поля "Должность"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Имя" допустимым значением. Например: "Мария". 
+2. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 
+3. Заполнить поле "Должность" допустимым значением. Например: PM. 
+4. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 
+2. Заполнить поле "Имя" лопустимым значением. Например: "Мария". 
+3. Заполнить поле "Должность" допустимым значением. Например: PM. 
+4. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Фамилия" допустимым значением. Например: "Апанасевич". 
+2. Заполнить поле "Отчество" лопустимым значением. Например: "Дмитриевна". 
+3. Заполнить поле "Имя" допустимым значением. Например: Мария. 
+4. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>Отображение сообщения об обязательном заполнении поля "Фамилия"</t>
+  </si>
+  <si>
+    <t>Отображение сообщения об обязательном заполнении поля "Отчество"</t>
+  </si>
+  <si>
+    <t>Отображение сообщения об обязательном заполнении поля "Должность"</t>
+  </si>
+  <si>
+    <t>Попытка редактирования записи без поля "Фамилия"</t>
+  </si>
+  <si>
+    <t>Попытка редактирования записи без поля "Отчество"</t>
+  </si>
+  <si>
+    <t>Попытка редактирования записи без поля "Должность"</t>
+  </si>
+  <si>
+    <t>1. Поле "Фамилия" оставить пустым. 
+2. Отредактировать поле "Имя" допустимым значением. Например: "Мария". 
+3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 
+4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 
+5. Нажать кнопку "Сохранить". Достаточно выполнить пункт 1, а 2-4 не выполнять.</t>
+  </si>
+  <si>
+    <t>1. Поле "Отчество" оставить пустым. 
+2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 
+3. Отредактировать поле "Имя" лопустимым значением. Например: "Мария". 
+4. Отредактировать поле "Должность" допустимым значением. Например: PM1. 
+5. Нажать кнопку "Сохранить". Достаточно выполнить пункт 1, а 2-4 не выполнять.</t>
+  </si>
+  <si>
+    <t>1. Поле "Должность" оставить пустым. 
+2. Отредактировать поле "Фамилия" допустимым значением. Например: "Апанасев". 
+3. Отредактировать поле "Отчество" лопустимым значением. Например: "Петровна". 
+4. Отредактировать поле "Имя" допустимым значением. Например: Мария. 
+5. Нажать кнопку "Сохранить". Достаточно выполнить пункт 1, а 2-4 не выполнять.</t>
+  </si>
+  <si>
+    <t>Создание новой записи о сотруднике с заполнением всех полей допустимыми значениями</t>
+  </si>
+  <si>
+    <t>Создание новой записи о сотруднике с заполнением всех полей недопустимыми значениями</t>
+  </si>
+  <si>
+    <t>Редактирование новой записи о сотруднике с заполнением всех полей недопустимыми значениями</t>
+  </si>
+  <si>
+    <t>Отредактировать запись о сотруднике с заполнением обязательных полей (допустимыми значениями)</t>
+  </si>
+  <si>
+    <t>1. Заполнить поле "Имя" недопустимым значением. Например: "@@@@". 
+2. Заполнить поле "Фамилия" недопустимым значением. Например: "@@@@". 
+3. Заполнить поле "Отчество" нелопустимым значением. Например: "@@@@а". 
+4. Заполнить поле "Должность" недопустимым значением. Например: "%%%%". 
+5. Нажать кнопку "Сохранить"</t>
+  </si>
+  <si>
+    <t>Отображается уведомление о недопустимом символе (под каждым полем)</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Создание документа</t>
+  </si>
+  <si>
+    <t>V1.0.0</t>
+  </si>
+  <si>
+    <t>дата</t>
+  </si>
+  <si>
+    <t>Описание изменений</t>
+  </si>
+  <si>
+    <t>Версия</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>История изменений</t>
+  </si>
+  <si>
+    <t>Недоступно для тестирования / функция не имплементирована</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Тест ОК, функция работает стабильно</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> OK</t>
+  </si>
+  <si>
+    <t>Обнаружены дефекты со статусами: Важный, Средний, Незначительный</t>
+  </si>
+  <si>
+    <t>&lt;Issue ID&gt;</t>
+  </si>
+  <si>
+    <t>Обнаружены критические дефекты</t>
+  </si>
+  <si>
+    <t>Вопросы по функциональности, тест отложен</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Обозначение результатов тестирования</t>
+  </si>
+  <si>
+    <t>"Спецификация_документ.doc" - спецификация требований.</t>
+  </si>
+  <si>
+    <t>Ссылки:</t>
+  </si>
+  <si>
+    <t>&lt;компания&gt;</t>
+  </si>
+  <si>
+    <t>Предоставил:</t>
+  </si>
+  <si>
+    <t>Предоставлено для:</t>
+  </si>
+  <si>
+    <t>Аудитория:</t>
+  </si>
+  <si>
+    <t>Список проверок для функционального/регрессионного тестирования</t>
+  </si>
+  <si>
+    <t>Система &lt;Проект&gt;</t>
+  </si>
+  <si>
+    <t>Апанасевич Мария</t>
+  </si>
+  <si>
+    <t>1.1.2.7.</t>
+  </si>
+  <si>
+    <t>1.1.2.8.</t>
+  </si>
+  <si>
+    <t>1.1.2.9.</t>
+  </si>
+  <si>
+    <t>1.1.2.10.</t>
+  </si>
+  <si>
+    <t>1.1.2.11.</t>
+  </si>
+  <si>
+    <t>1.1.2.12.</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +488,58 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +570,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="41"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -452,11 +723,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,9 +875,108 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,16 +1307,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+    </row>
+    <row r="4" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="61"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="61"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="57"/>
+    </row>
+    <row r="8" spans="1:7" s="54" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" s="35" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -905,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1024,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1045,17 +1671,17 @@
         <v>21</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C6" s="32"/>
       <c r="D6" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -1073,17 +1699,17 @@
         <v>22</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -1101,17 +1727,17 @@
         <v>23</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
@@ -1129,17 +1755,17 @@
         <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -1157,17 +1783,17 @@
         <v>25</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -1182,10 +1808,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="20"/>
@@ -1202,22 +1828,22 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
     </row>
-    <row r="12" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="32"/>
       <c r="D12" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="27"/>
@@ -1233,20 +1859,20 @@
     </row>
     <row r="13" spans="1:17" ht="191.25" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -1262,20 +1888,20 @@
     </row>
     <row r="14" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>50</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -1291,20 +1917,20 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -1320,20 +1946,20 @@
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -1346,6 +1972,514 @@
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
       <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="18" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+    </row>
+    <row r="19" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+    </row>
+    <row r="21" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+    </row>
+    <row r="22" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+    </row>
+    <row r="23" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+    </row>
+    <row r="24" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="4">
